--- a/PMY.xlsx
+++ b/PMY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugc00\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PMY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EEF826-124D-4B4A-A9A4-2BD6D0D3BE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32CB46A-D7DA-439A-8AD2-AC4651EFE20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10845" yWindow="2370" windowWidth="12840" windowHeight="11385" xr2:uid="{9203583D-BFF8-423F-8658-41F82A3DE4FB}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{9203583D-BFF8-423F-8658-41F82A3DE4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
   <si>
     <t>Action</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,6 +335,42 @@
   </si>
   <si>
     <t>DodgeStart/End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SemiAuto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovableCharging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnMovableCharging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액션 중 점프가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액션이 bCanOv~시 액션을 캔슬할 수 있는지 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액션이 bCanCancel 액션에 의해 캔슬될 수 있는지 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,17 +791,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45EDAA7-B5FB-4164-8EBB-D9F402210B3D}">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.25" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.5" customWidth="1"/>
@@ -773,7 +809,7 @@
     <col min="22" max="22" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -787,7 +823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -802,10 +838,13 @@
       </c>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="Q3" s="4" t="s">
         <v>36</v>
       </c>
@@ -813,10 +852,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>6</v>
       </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
       <c r="Q4" s="4" t="s">
         <v>22</v>
       </c>
@@ -824,10 +866,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>7</v>
       </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
       <c r="Q5" s="4" t="s">
         <v>56</v>
       </c>
@@ -835,22 +880,40 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
       <c r="Q6" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
       <c r="Q7" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
       <c r="Q8" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -861,7 +924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -869,7 +932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="I11" s="6" t="s">
         <v>40</v>
       </c>
@@ -879,7 +942,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="I12" s="3" t="s">
         <v>37</v>
       </c>
@@ -917,7 +980,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="I13" s="3" t="s">
         <v>16</v>
       </c>
@@ -958,7 +1021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="I14" s="3" t="s">
         <v>17</v>
       </c>
@@ -972,7 +1035,7 @@
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="I15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1001,7 +1064,7 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="I16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1030,7 +1093,7 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
     </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I17" s="3" t="s">
         <v>35</v>
       </c>
@@ -1059,7 +1122,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
     </row>
-    <row r="18" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:22" x14ac:dyDescent="0.45">
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="2" t="s">
@@ -1070,7 +1133,7 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
     </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I19" s="3" t="s">
         <v>41</v>
       </c>
@@ -1084,7 +1147,7 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
     </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I20" t="s">
         <v>30</v>
       </c>
@@ -1100,7 +1163,7 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
     </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I21" t="s">
         <v>31</v>
       </c>
@@ -1126,7 +1189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
         <v>32</v>
       </c>
@@ -1146,7 +1209,7 @@
       </c>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:22" x14ac:dyDescent="0.45">
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="2" t="s">
@@ -1163,7 +1226,7 @@
       </c>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I24" s="3" t="s">
         <v>44</v>
       </c>
@@ -1186,7 +1249,7 @@
       </c>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I25" t="s">
         <v>45</v>
       </c>
@@ -1201,7 +1264,7 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I26" t="s">
         <v>46</v>
       </c>
@@ -1216,7 +1279,7 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I27" t="s">
         <v>74</v>
       </c>
@@ -1228,7 +1291,7 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I28" t="s">
         <v>33</v>
       </c>
@@ -1244,7 +1307,7 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:22" x14ac:dyDescent="0.45">
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="2" t="s">
@@ -1255,7 +1318,7 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:22" x14ac:dyDescent="0.45">
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="2" t="s">
@@ -1270,14 +1333,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:22" x14ac:dyDescent="0.45">
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I32" s="3" t="s">
         <v>66</v>
       </c>
@@ -1292,7 +1355,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
         <v>67</v>
       </c>
@@ -1302,7 +1365,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
         <v>68</v>
       </c>
@@ -1324,17 +1387,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
         <v>71</v>
       </c>
